--- a/global/SkillTimeline.xlsx
+++ b/global/SkillTimeline.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03DA0B4-D489-4897-9FDF-DAEE264AADBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1686C50E-D942-4582-ACB2-DF11A20919B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTimeLine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +24,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>dd</author>
+  </authors>
+  <commentList>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{02C26310-3BBF-4CE2-AE69-7B1169A321F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1-这个触发的顺序根据前面轨道开始时间来决定
+2-时间一致时由trackID的序列来决定先后
+3-战技：重复的effectID不执行，仅执行第1个
+4-战技：真多段的多个effect,按照配置的顺序依次跟track中对应。多出来的同一在技能释放的最后根据顺序播放
+4-这里配了第几个但timeline配置中没有对应的effect，同样不执行
+5-这里没配置，timeline中有的，都是在技能表演结束后，根据timeline表演里的先后顺序生效对应的effect
+6-奥义的表演只读effect的第1个，奥义多个hit点对应都是这个effect的分拆
+7-track表中仅依次播放不带触发器条件的effectID，配置时优先配置没有触发条件的</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="175">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>受击特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>施法特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,22 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>受击特效表现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法特效表现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击动作编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bak1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fxName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,211 +134,636 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TimeLineID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect时间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hitAnimName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitFxName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能释放者动作名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击特效插槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机特效插槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeLineID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comb2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk_hit1</t>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击顿帧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitStopTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击退距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitBackDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击停顿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击停顿时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑效果读取配置中第几个effect</t>
-  </si>
-  <si>
-    <t>effectIndex</t>
-  </si>
-  <si>
-    <t>第几个effect</t>
-  </si>
-  <si>
-    <t>effect顺序2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect时间点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comb1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitFxSlot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效名称
-做到一个文件里
-直接挂在人身上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹道速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bulletFx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>子弹特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bulletFx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_com_move_select</t>
-  </si>
-  <si>
-    <t>击退距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：固定范围
-2：单体弹道
-3：技能表演</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定范围是受击的时间点
-单体弹道是发出的时间点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹道速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表演类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能释放者
 动作名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法特效
+表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定范围-是
+受击的时间点
+单体弹道-是
+发出的时间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗逻辑eff
+生效时间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能为多个
+做到一个文件里
+直接挂在人身上
+或武器上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_merlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼白-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_daoguang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹特效
+以模型外圈
+作为起始点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹道起始偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹道高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹道从模型的正前方
+偏移距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹道的起始
+高度偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk_xuli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-奥义1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-奥义技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼白-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景表演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-战斗场景
+2-虚拟环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：固定范围(普攻)
+2：单体弹道(普攻)
+3：技能表演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-奥义技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merlin_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能effectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004,1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发效果逻辑
+ID的顺序由track表中的开始时间决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200201,200202,200203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300201,300201,300201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：无表演
+1：固定范围(普攻)
+2：单体弹道(普攻)
+3：技能表演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shot3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_attack1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤石柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_attack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100301,100302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200301,200301,200301,200301,200302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merlin_attack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300301,300302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800101,800102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800201,800202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-临时奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800501,800502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100401,100401,100401,100401,100402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2101101,2101102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-天赋A1-传送至友军身旁，对周围3米内所有友军生成【护盾】效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2101201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-天赋B1-通过移动经过【石柱】1米范围内时，战技2技能CD重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-天赋A1-战技1使用后，【嘲讽】自身周围3米范围内的敌方目标，使其在接下来的20秒内，只能使用普通攻击攻击自身。同时自身获得【烈焰铠甲】效果，持续20秒，期间火抗提升50%，自身受到伤害降低30%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-天赋B1-战技2使用时，对受击目标产生【烈焰标记】，持续期间每次受到【烈焰光环】的攻击都会附加其生命上限2%的伤害。（标记持续30秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2201101,2201102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2201201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-天赋A1</t>
+  </si>
+  <si>
+    <t>梅林-天赋B1</t>
+  </si>
+  <si>
+    <t>洛基-天赋A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-天赋B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-普攻1-分拆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-普攻2-分拆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_atk1</t>
+  </si>
+  <si>
+    <t>Monster_atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-召唤小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900311,900312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200501,200502,200503,200504,200505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waerjili_attack1_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merlin_attack1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_bullet</t>
+  </si>
+  <si>
+    <t>哈迪斯-普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈迪斯-技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merlin_attack2_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100112,100111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-普攻1-分拆</t>
+  </si>
+  <si>
+    <t>comb1</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash1</t>
+  </si>
+  <si>
+    <t>男主-普攻2-分拆</t>
+  </si>
+  <si>
+    <t>comb2</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash2</t>
+  </si>
+  <si>
+    <t>男主-技能1</t>
+  </si>
+  <si>
+    <t>atk1</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk1</t>
+  </si>
+  <si>
+    <t>男主-技能2</t>
+  </si>
+  <si>
+    <t>atk2</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk2</t>
+  </si>
+  <si>
+    <t>200301,200301,200301,200301,200302</t>
+  </si>
+  <si>
+    <t>男主-临时奥义</t>
+  </si>
+  <si>
+    <t>200501,200502,200503,200504,200505</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,8 +787,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +833,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor theme="4" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -487,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,114 +984,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="18">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -717,9 +1128,7 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -746,6 +1155,55 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -859,23 +1317,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:P10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="C1:P10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="表演类型" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="effect顺序2" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="被击动作编号" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="受击特效" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="插槽ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="被击顿帧" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="击退距离" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C1:O52" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="C1:O52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TimeLineID" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{6EC15DF4-B9C6-44B1-9114-5D0E6483D93B}" name="备注" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{F80DBC4B-F22C-476A-B707-5F859B091855}" name="场景表演" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="动画类型" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="持续时间" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="表演ID" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="施法特效" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="子弹特效" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="弹道速度" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{7DE3E249-5265-46EC-A7D5-79ECF44EF87B}" name="弹道起始偏移" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{365F177B-4E80-4AE7-8031-13055E21DD6C}" name="弹道高度" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="effect时间点" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{85E4840D-F73A-4BDB-A129-6F4E57B38098}" name="effectID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1143,35 +1600,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.625" style="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="15.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.625" style="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1"/>
+    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="33.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,192 +1637,170 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="D2" s="15"/>
       <c r="E2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>62</v>
+        <v>85</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
+        <v>86</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D4" s="10"/>
+      <c r="E4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1372,197 +1808,1589 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
-        <v>1001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="O7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C8" s="2">
-        <v>1002</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="21">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C9" s="4">
-        <v>1003</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>65</v>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C9" s="16">
+        <v>3</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="4">
-        <v>1004</v>
-      </c>
-      <c r="D10" s="4">
+        <v>167</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="16">
+        <v>4</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="2">
+        <v>4.26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
+      <c r="O10" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4.26</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1003</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C15" s="16">
+        <v>1004</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5.367</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="20">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C16" s="16">
+        <v>1005</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C17" s="2">
+        <v>20011</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="O17" s="20">
+        <v>200111</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <v>20012</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="20">
+        <v>200121</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C19" s="4">
+        <v>2002</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C20" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="19">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C22" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <v>3001</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="2">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="20">
+        <v>300101</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C24" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C25" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C26" s="4">
+        <v>3004</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="18">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="20">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C27" s="2">
+        <v>3005</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="20">
+        <v>300501</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C28" s="2">
+        <v>4001</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="2">
+        <v>10</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="20">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C29" s="25">
+        <v>4002</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="29">
+        <v>3</v>
+      </c>
+      <c r="G29" s="25">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="27">
+        <v>400201</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C30" s="2">
+        <v>5001</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="19">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1.167</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O30" s="20">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C31" s="2">
+        <v>5002</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="20">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C32" s="2">
+        <v>6001</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="19">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O32" s="20">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <v>6002</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="19">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2.2669999999999999</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="20">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <v>8001</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="19">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2.2669999999999999</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <v>8002</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="19">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <v>8003</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="20">
+        <v>800301</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C37" s="4">
+        <v>8004</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="18">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2">
+        <v>12.133333333333333</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="23"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="20">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <v>8005</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="19">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
+        <v>9001</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="2">
+        <v>10</v>
+      </c>
+      <c r="L39" s="2">
+        <v>2</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1.667</v>
+      </c>
+      <c r="O39" s="20">
+        <v>900111</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C40" s="25">
+        <v>9002</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="25">
+        <v>1</v>
+      </c>
+      <c r="F40" s="25">
+        <v>3</v>
+      </c>
+      <c r="G40" s="25">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40" s="26"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="27">
+        <v>900211</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C41" s="25">
+        <v>9003</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="25">
+        <v>1</v>
+      </c>
+      <c r="F41" s="29">
+        <v>3</v>
+      </c>
+      <c r="G41" s="25">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C42" s="2">
+        <v>11001</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="19">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O42" s="20">
+        <v>1100111</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C43" s="2">
+        <v>11002</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" s="14"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O43" s="20">
+        <v>1100211</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C44" s="4">
+        <v>21011</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="23">
+        <v>0</v>
+      </c>
+      <c r="J44" s="23">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C45" s="2">
+        <v>21012</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="23">
+        <v>0</v>
+      </c>
+      <c r="J45" s="23">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C46" s="2">
+        <v>22011</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="23">
+        <v>0</v>
+      </c>
+      <c r="J46" s="23">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C47" s="2">
+        <v>22012</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="23">
+        <v>0</v>
+      </c>
+      <c r="J47" s="23">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C48" s="4">
+        <v>23011</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="23">
+        <v>0</v>
+      </c>
+      <c r="J48" s="23">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <v>2301101</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C49" s="2">
+        <v>23012</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="23">
+        <v>0</v>
+      </c>
+      <c r="J49" s="23">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>2301201</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C50" s="2">
+        <v>28011</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="23">
+        <v>0</v>
+      </c>
+      <c r="J50" s="23">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>2801101</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C51" s="2">
+        <v>28012</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="23">
+        <v>0</v>
+      </c>
+      <c r="J51" s="23">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>2801201</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>